--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoldas/Documents/GitHub/BLG222E-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4BE03-6EF7-DE49-80CF-601DE112C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF899D5B-F551-B143-8D3B-8E20F7F2DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{443453B2-BC4C-284F-AA83-E3A6FCF9F1BC}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{443453B2-BC4C-284F-AA83-E3A6FCF9F1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="218">
   <si>
     <t>T0</t>
   </si>
@@ -256,18 +256,6 @@
     <t>M[SP] ← Rx[15:8] (16-bit), SP--</t>
   </si>
   <si>
-    <t>Rx[31:24] ← M[SP] (32-bit), SP ++</t>
-  </si>
-  <si>
-    <t>Rx[23:16] ← M[SP] (32-bit), SP++</t>
-  </si>
-  <si>
-    <t>Rx[15:8] ← M[SP] (32-bit), SP++</t>
-  </si>
-  <si>
-    <t>Rx[7:0] ← M[SP] (32-bit), SP++</t>
-  </si>
-  <si>
     <t>Rx ← DR (32-bit)</t>
   </si>
   <si>
@@ -409,9 +397,6 @@
     <t>LDAH</t>
   </si>
   <si>
-    <t>M[ADDRESS] ← Rx</t>
-  </si>
-  <si>
     <t>STA</t>
   </si>
   <si>
@@ -421,21 +406,12 @@
     <t>LDDRH</t>
   </si>
   <si>
-    <t>DR ← M[AR] (16-bit)</t>
-  </si>
-  <si>
-    <t>DR ← M[AR] (32-bit)</t>
-  </si>
-  <si>
     <t>DSTREG ← DR</t>
   </si>
   <si>
     <t>STDR</t>
   </si>
   <si>
-    <t>M[AR+OFFSET] ← Rx (AR is 16-bit register)</t>
-  </si>
-  <si>
     <t>STRIM</t>
   </si>
   <si>
@@ -611,6 +587,108 @@
   </si>
   <si>
     <t>Rx[31:24] ← M[AR], AR++</t>
+  </si>
+  <si>
+    <t>T5.D30</t>
+  </si>
+  <si>
+    <t>T4.D31</t>
+  </si>
+  <si>
+    <t>T5.D31</t>
+  </si>
+  <si>
+    <t>T6.D31</t>
+  </si>
+  <si>
+    <t>T7.D31</t>
+  </si>
+  <si>
+    <t>M[AR] ← Rx[31:24], AR++</t>
+  </si>
+  <si>
+    <t>M[AR] ← Rx[23:16], AR++</t>
+  </si>
+  <si>
+    <t>M[AR] ← Rx[15:8], AR++</t>
+  </si>
+  <si>
+    <t>M[AR] ← Rx[7:0]</t>
+  </si>
+  <si>
+    <t>DR[7:0] ← M[AR]</t>
+  </si>
+  <si>
+    <t>DR[15:8] ← M[AR], AR++</t>
+  </si>
+  <si>
+    <t>DR[23:16] ← M[AR], AR++</t>
+  </si>
+  <si>
+    <t>DR[31:24] ← M[AR], AR++</t>
+  </si>
+  <si>
+    <t>AR ← AR + OFFSET</t>
+  </si>
+  <si>
+    <t>T4.D32</t>
+  </si>
+  <si>
+    <t>T5.D32</t>
+  </si>
+  <si>
+    <t>T6.D32</t>
+  </si>
+  <si>
+    <t>T7.D32</t>
+  </si>
+  <si>
+    <t>T4.D33</t>
+  </si>
+  <si>
+    <t>T4.D34</t>
+  </si>
+  <si>
+    <t>T5.D34</t>
+  </si>
+  <si>
+    <t>T6.D34</t>
+  </si>
+  <si>
+    <t>T4.D36</t>
+  </si>
+  <si>
+    <t>T5.D36</t>
+  </si>
+  <si>
+    <t>T6.D36</t>
+  </si>
+  <si>
+    <t>T7.D36</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>b111</t>
+  </si>
+  <si>
+    <t>SREG--</t>
+  </si>
+  <si>
+    <t>SREG++</t>
+  </si>
+  <si>
+    <t>DR[31:24] ← M[SP] (32-bit), SP ++</t>
+  </si>
+  <si>
+    <t>DR[23:16] ← M[SP] (32-bit), SP++</t>
+  </si>
+  <si>
+    <t>DR[15:8] ← M[SP] (32-bit), SP++</t>
+  </si>
+  <si>
+    <t>DR[7:0] ← M[SP] (32-bit), SP++</t>
   </si>
 </sst>
 </file>
@@ -760,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,9 +903,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,9 +916,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -871,6 +943,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,11 +1279,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DB591A-43FC-2A40-86FF-FC6A8A5D345E}">
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,41 +1301,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="30" t="s">
+      <c r="V1" s="34"/>
+      <c r="W1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="30"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
@@ -1332,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>55</v>
@@ -1370,14 +1460,16 @@
       <c r="T3" s="20">
         <v>1</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="U3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1401,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>55</v>
@@ -1439,13 +1531,16 @@
       <c r="T4" s="13">
         <v>1</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="14">
+      <c r="U4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1459,51 +1554,53 @@
       <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21">
-        <v>0</v>
-      </c>
-      <c r="W5" s="28">
-        <v>0</v>
-      </c>
-      <c r="X5" s="28">
+      <c r="O5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="36">
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <v>0</v>
+      </c>
+      <c r="X5" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1517,51 +1614,53 @@
       <c r="C6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21">
-        <v>0</v>
-      </c>
-      <c r="W6" s="28">
-        <v>0</v>
-      </c>
-      <c r="X6" s="28">
+      <c r="O6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="36">
+        <v>0</v>
+      </c>
+      <c r="W6" s="40">
+        <v>0</v>
+      </c>
+      <c r="X6" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1575,51 +1674,53 @@
       <c r="C7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21">
-        <v>0</v>
-      </c>
-      <c r="W7" s="28">
-        <v>0</v>
-      </c>
-      <c r="X7" s="28">
+      <c r="O7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="36">
+        <v>0</v>
+      </c>
+      <c r="W7" s="40">
+        <v>0</v>
+      </c>
+      <c r="X7" s="40">
         <v>0</v>
       </c>
     </row>
@@ -1633,7 +1734,9 @@
       <c r="C8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -1671,13 +1774,13 @@
       <c r="U8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="36">
         <v>1</v>
       </c>
-      <c r="W8" s="22">
-        <v>0</v>
-      </c>
-      <c r="X8" s="22">
+      <c r="W8" s="37">
+        <v>0</v>
+      </c>
+      <c r="X8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1718,13 +1821,13 @@
       <c r="U9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="38">
         <v>1</v>
       </c>
-      <c r="W9" s="8">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8">
+      <c r="W9" s="41">
+        <v>0</v>
+      </c>
+      <c r="X9" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1774,13 +1877,16 @@
       <c r="T10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
+      <c r="U10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="38">
+        <v>0</v>
+      </c>
+      <c r="W10" s="39">
+        <v>0</v>
+      </c>
+      <c r="X10" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1820,7 +1926,7 @@
         <v>54</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R11" s="19" t="s">
         <v>55</v>
@@ -1831,14 +1937,16 @@
       <c r="T11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="22">
+      <c r="U11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="37">
         <v>1</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1886,13 +1994,16 @@
       <c r="T12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W12" s="14">
+      <c r="U12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="39">
         <v>1</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1904,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -1944,11 +2055,13 @@
       <c r="U13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="36">
         <v>1</v>
       </c>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22">
+      <c r="W13" s="37">
+        <v>0</v>
+      </c>
+      <c r="X13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1957,7 +2070,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>46</v>
@@ -1989,10 +2102,13 @@
       <c r="U14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="38">
         <v>1</v>
       </c>
-      <c r="X14" s="8">
+      <c r="W14" s="41">
+        <v>0</v>
+      </c>
+      <c r="X14" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2001,7 +2117,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>46</v>
@@ -2024,13 +2140,22 @@
       <c r="R15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="S15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="38">
         <v>1</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="W15" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2039,7 +2164,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>46</v>
@@ -2071,10 +2196,13 @@
       <c r="U16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="38">
         <v>1</v>
       </c>
-      <c r="X16" s="8">
+      <c r="W16" s="41">
+        <v>0</v>
+      </c>
+      <c r="X16" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2083,7 +2211,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
@@ -2124,11 +2252,16 @@
       <c r="T17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14">
+      <c r="U17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="39">
+        <v>0</v>
+      </c>
+      <c r="X17" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2140,17 +2273,23 @@
         <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="M18" s="18" t="s">
         <v>53</v>
       </c>
@@ -2164,7 +2303,7 @@
         <v>54</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="R18" s="19" t="s">
         <v>55</v>
@@ -2175,12 +2314,16 @@
       <c r="T18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22">
+      <c r="U18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="X18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2189,7 +2332,16 @@
         <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>53</v>
@@ -2204,7 +2356,7 @@
         <v>54</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>55</v>
@@ -2215,10 +2367,16 @@
       <c r="T19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="8">
+      <c r="U19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X19" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2227,7 +2385,16 @@
         <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>53</v>
@@ -2242,7 +2409,7 @@
         <v>54</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="R20" s="19" t="s">
         <v>55</v>
@@ -2253,10 +2420,16 @@
       <c r="T20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X20" s="8">
+      <c r="U20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2265,17 +2438,23 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="M21" s="11" t="s">
         <v>53</v>
       </c>
@@ -2289,7 +2468,7 @@
         <v>54</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="R21" s="19" t="s">
         <v>55</v>
@@ -2300,11 +2479,16 @@
       <c r="T21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="V21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14">
+      <c r="U21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2316,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -2345,32 +2529,54 @@
       <c r="T22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22">
+      <c r="U22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="X23" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2397,714 +2603,897 @@
       <c r="T24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14">
+      <c r="U24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="39">
+        <v>0</v>
+      </c>
+      <c r="X24" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28">
+        <v>161</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="40">
+        <v>0</v>
+      </c>
+      <c r="X25" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X26" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>213</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X27" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X28" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="29" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>212</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X30" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="31" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T31" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28">
+        <v>85</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X31" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T32" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28">
+        <v>86</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" s="40">
+        <v>0</v>
+      </c>
+      <c r="X32" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T33" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28">
+        <v>131</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" s="40">
+        <v>0</v>
+      </c>
+      <c r="X33" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28">
+        <v>132</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="40">
+        <v>0</v>
+      </c>
+      <c r="X34" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T35" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28">
+        <v>133</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V35" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" s="40">
+        <v>0</v>
+      </c>
+      <c r="X35" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28">
+        <v>134</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" s="40">
+        <v>0</v>
+      </c>
+      <c r="X36" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28">
+        <v>96</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T37" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V37" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" s="40">
+        <v>0</v>
+      </c>
+      <c r="X37" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T38" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28">
+        <v>97</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" s="40">
+        <v>0</v>
+      </c>
+      <c r="X38" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T39" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28">
+        <v>98</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V39" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" s="40">
+        <v>0</v>
+      </c>
+      <c r="X39" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T40" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28">
+        <v>99</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" s="40">
+        <v>0</v>
+      </c>
+      <c r="X40" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T41" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28">
+        <v>105</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T41" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="40">
+        <v>0</v>
+      </c>
+      <c r="X41" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T42" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28">
+        <v>106</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T42" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W42" s="40">
+        <v>0</v>
+      </c>
+      <c r="X42" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T43" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28">
+        <v>109</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T43" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U43" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" s="40">
+        <v>0</v>
+      </c>
+      <c r="X43" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T44" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28">
+        <v>110</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U44" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W44" s="40">
+        <v>0</v>
+      </c>
+      <c r="X44" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T45" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28">
+        <v>113</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T45" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U45" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" s="40">
+        <v>0</v>
+      </c>
+      <c r="X45" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -3127,486 +3516,1191 @@
       <c r="T46" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22">
+      <c r="U46" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" s="37">
+        <v>0</v>
+      </c>
+      <c r="X46" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T47" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28">
+        <v>145</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" s="40">
+        <v>0</v>
+      </c>
+      <c r="X47" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X48" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T49" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28">
+        <v>146</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V49" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W49" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X49" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V50" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W50" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X50" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W51" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X51" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W52" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X52" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T53" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U53" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V53" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W53" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="X53" s="40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W54" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X54" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V55" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W55" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X55" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V56" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W56" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X56" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28">
+        <v>179</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T57" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U57" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V57" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W57" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X57" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V58" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W58" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X58" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V59" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W59" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X59" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U60" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W60" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X60" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V61" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W61" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X61" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V62" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W62" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X62" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V63" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W63" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X63" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V64" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W64" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X64" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T65" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U65" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V65" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W65" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X65" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V66" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W66" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X66" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V67" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W67" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X67" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V68" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W68" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X68" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S69" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T69" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V69" s="38">
+        <v>0</v>
+      </c>
+      <c r="W69" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X69" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T70" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U70" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V70" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="W70" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X70" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V71" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="W71" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X71" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T72" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U72" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V72" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="W72" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X72" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V73" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="W73" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X73" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T74" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V74" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="W74" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X74" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V75" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="W75" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X75" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T60" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C61" s="1" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U76" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V76" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W76" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X76" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T77" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U77" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V77" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W77" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="X77" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S78" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T78" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U78" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V78" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W78" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X78" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U79" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V79" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W79" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X79" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C62" s="37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C63" s="37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T65" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="15" t="s">
+      <c r="P80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U80" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V80" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W80" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X80" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T81" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U81" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V81" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W81" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="X81" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U91" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T66" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T67" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="T68" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T69" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U91" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +4716,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="W3:W4 U5:V10 V3 V4 U20 U11 U12 U13:U18 V13:V16 V11:V12 V17 U19 V18:V22 X15:X23" numberStoredAsText="1"/>
+    <ignoredError sqref="W3 U8:V9 V3 V4 U13:U14 V13:V14 V11:V12 V17 V18:V22 X15:X23 V46:V68 V23:V45 V5 V6 V7 V10 X26:X81 W48:W81 W4:W31 V70:V81 U16 V16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoldas/Documents/GitHub/BLG222E-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF899D5B-F551-B143-8D3B-8E20F7F2DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200DE67F-BB6D-CC4E-97BF-5848B40622A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{443453B2-BC4C-284F-AA83-E3A6FCF9F1BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="223">
   <si>
     <t>T0</t>
   </si>
@@ -208,9 +208,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>b00001</t>
-  </si>
-  <si>
     <t>CALL</t>
   </si>
   <si>
@@ -520,12 +517,6 @@
     <t>T4.D8</t>
   </si>
   <si>
-    <t>PC[7:0] ← M[SP] (16 bit), SP++</t>
-  </si>
-  <si>
-    <t>PC[15:8] ← M[SP] (16 bit), SP++</t>
-  </si>
-  <si>
     <t>Rx[31-8] ← Rx[23-0], Rx[7-0] ← IMMEDIATE (8-bit)</t>
   </si>
   <si>
@@ -689,6 +680,30 @@
   </si>
   <si>
     <t>DR[7:0] ← M[SP] (32-bit), SP++</t>
+  </si>
+  <si>
+    <t>b00000</t>
+  </si>
+  <si>
+    <t>b10000</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>DR[7:0] ← M[SP] (16 bit), SP++</t>
+  </si>
+  <si>
+    <t>DR[15:8] ← M[SP] (16 bit), SP++</t>
+  </si>
+  <si>
+    <t>T5.D8</t>
+  </si>
+  <si>
+    <t>PC ← DR[15:0]</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1295,10 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>55</v>
@@ -1478,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>55</v>
@@ -1552,21 +1567,35 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="H5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="M5" s="24" t="s">
         <v>51</v>
       </c>
@@ -1612,21 +1641,35 @@
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="H6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="M6" s="24" t="s">
         <v>51</v>
       </c>
@@ -1672,21 +1715,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="H7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="M7" s="24" t="s">
         <v>51</v>
       </c>
@@ -1732,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -1743,10 +1800,18 @@
       <c r="H8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="M8" s="18" t="s">
         <v>53</v>
       </c>
@@ -1789,10 +1854,25 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>53</v>
@@ -1836,9 +1916,11 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>47</v>
       </c>
@@ -1847,17 +1929,23 @@
       <c r="H10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="M10" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>55</v>
@@ -1898,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -1912,7 +2000,9 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="M11" s="18" t="s">
         <v>53</v>
       </c>
@@ -1926,7 +2016,7 @@
         <v>54</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="R11" s="19" t="s">
         <v>55</v>
@@ -1955,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1969,7 +2059,9 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="M12" s="11" t="s">
         <v>53</v>
       </c>
@@ -1983,7 +2075,7 @@
         <v>54</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>55</v>
@@ -2015,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2024,10 +2116,18 @@
       <c r="H13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="M13" s="18" t="s">
         <v>53</v>
       </c>
@@ -2067,14 +2167,26 @@
     </row>
     <row r="14" spans="1:24" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="M14" s="18" t="s">
         <v>53</v>
       </c>
@@ -2114,14 +2226,26 @@
     </row>
     <row r="15" spans="1:24" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="M15" s="18" t="s">
         <v>53</v>
       </c>
@@ -2161,14 +2285,26 @@
     </row>
     <row r="16" spans="1:24" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="I16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="M16" s="18" t="s">
         <v>53</v>
       </c>
@@ -2208,31 +2344,38 @@
     </row>
     <row r="17" spans="1:24" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="9"/>
+        <v>47</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="J17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="M17" s="11" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>55</v>
@@ -2273,22 +2416,34 @@
         <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="H18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="L18" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>53</v>
@@ -2297,13 +2452,13 @@
         <v>45</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>54</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="R18" s="19" t="s">
         <v>55</v>
@@ -2321,7 +2476,7 @@
         <v>56</v>
       </c>
       <c r="W18" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X18" s="37">
         <v>0</v>
@@ -2329,19 +2484,37 @@
     </row>
     <row r="19" spans="1:24" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="I19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="L19" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>53</v>
@@ -2350,13 +2523,13 @@
         <v>45</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>55</v>
@@ -2374,7 +2547,7 @@
         <v>56</v>
       </c>
       <c r="W19" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X19" s="41">
         <v>0</v>
@@ -2382,19 +2555,37 @@
     </row>
     <row r="20" spans="1:24" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="I20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="L20" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>53</v>
@@ -2403,13 +2594,13 @@
         <v>45</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="R20" s="19" t="s">
         <v>55</v>
@@ -2427,7 +2618,7 @@
         <v>56</v>
       </c>
       <c r="W20" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X20" s="41">
         <v>0</v>
@@ -2435,25 +2626,37 @@
     </row>
     <row r="21" spans="1:24" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="H21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="L21" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>53</v>
@@ -2462,13 +2665,13 @@
         <v>45</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="R21" s="19" t="s">
         <v>55</v>
@@ -2486,7 +2689,7 @@
         <v>56</v>
       </c>
       <c r="W21" s="39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X21" s="39">
         <v>0</v>
@@ -2494,19 +2697,25 @@
     </row>
     <row r="22" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="F22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -2517,12 +2726,18 @@
       <c r="N22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="18"/>
+      <c r="O22" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="P22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
+      <c r="Q22" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="S22" s="20" t="s">
         <v>55</v>
       </c>
@@ -2536,7 +2751,7 @@
         <v>56</v>
       </c>
       <c r="W22" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X22" s="37">
         <v>0</v>
@@ -2544,14 +2759,38 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="Q23" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="S23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2565,7 +2804,7 @@
         <v>56</v>
       </c>
       <c r="W23" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X23" s="41" t="s">
         <v>56</v>
@@ -2573,16 +2812,20 @@
     </row>
     <row r="24" spans="1:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2596,7 +2839,9 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="S24" s="13" t="s">
         <v>55</v>
       </c>
@@ -2618,13 +2863,13 @@
     </row>
     <row r="25" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -2635,8 +2880,12 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="M25" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24" t="s">
         <v>54</v>
@@ -2662,12 +2911,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>220</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>54</v>
@@ -2685,199 +2940,163 @@
         <v>56</v>
       </c>
       <c r="W26" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="X26" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X28" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="X29" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T27" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U27" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X27" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X30" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V28" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="X28" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U29" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V30" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X30" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T31" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U31" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X31" s="40">
-        <v>0</v>
+      <c r="S31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X31" s="41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -2906,8 +3125,8 @@
       <c r="V32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="W32" s="40">
-        <v>0</v>
+      <c r="W32" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="X32" s="40">
         <v>0</v>
@@ -2915,13 +3134,13 @@
     </row>
     <row r="33" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>88</v>
+        <v>129</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -2959,10 +3178,10 @@
     </row>
     <row r="34" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>87</v>
@@ -3003,13 +3222,13 @@
     </row>
     <row r="35" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3047,13 +3266,13 @@
     </row>
     <row r="36" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3091,13 +3310,13 @@
     </row>
     <row r="37" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>96</v>
+        <v>133</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -3135,13 +3354,13 @@
     </row>
     <row r="38" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -3179,13 +3398,13 @@
     </row>
     <row r="39" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -3223,13 +3442,13 @@
     </row>
     <row r="40" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -3267,13 +3486,13 @@
     </row>
     <row r="41" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3311,13 +3530,13 @@
     </row>
     <row r="42" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -3355,13 +3574,13 @@
     </row>
     <row r="43" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -3399,13 +3618,13 @@
     </row>
     <row r="44" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -3443,13 +3662,13 @@
     </row>
     <row r="45" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -3487,198 +3706,213 @@
     </row>
     <row r="46" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T46" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U46" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" s="40">
+        <v>0</v>
+      </c>
+      <c r="X46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T47" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" s="37">
+        <v>0</v>
+      </c>
+      <c r="X47" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C48" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T48" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" s="40">
+        <v>0</v>
+      </c>
+      <c r="X48" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V49" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W49" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X49" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="U46" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V46" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" s="37">
-        <v>0</v>
-      </c>
-      <c r="X46" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T47" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V47" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W47" s="40">
-        <v>0</v>
-      </c>
-      <c r="X47" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U48" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V48" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W48" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X48" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T49" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U49" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V49" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W49" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X49" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V50" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W50" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X50" s="41" t="s">
-        <v>56</v>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U50" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V50" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W50" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X50" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>164</v>
@@ -3705,12 +3939,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>50</v>
@@ -3734,90 +3968,90 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24" t="s">
+    <row r="53" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U53" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V53" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W53" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="X53" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="S54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U54" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V54" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W54" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="X54" s="41" t="s">
+      <c r="S53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V53" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W53" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X53" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W54" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="X54" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="S55" s="6" t="s">
         <v>55</v>
@@ -3832,18 +4066,18 @@
         <v>56</v>
       </c>
       <c r="W55" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X55" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>50</v>
@@ -3861,91 +4095,91 @@
         <v>56</v>
       </c>
       <c r="W56" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X56" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U57" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V57" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W57" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X57" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P58" s="4" t="s">
+    <row r="57" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S58" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T58" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U58" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V58" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W58" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X58" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V57" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W57" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="X57" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T58" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U58" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V58" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W58" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X58" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>50</v>
@@ -3969,85 +4203,85 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T60" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U60" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V60" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W60" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X60" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="P61" s="4" t="s">
+    <row r="60" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U61" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V61" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W61" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X61" s="41" t="s">
-        <v>56</v>
+      <c r="S60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V60" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W60" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X60" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T61" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U61" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V61" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W61" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X61" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="35" t="s">
         <v>182</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>50</v>
@@ -4073,10 +4307,10 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>50</v>
@@ -4100,12 +4334,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>177</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>50</v>
@@ -4129,85 +4363,85 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T65" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U65" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V65" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W65" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X65" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P66" s="4" t="s">
+    <row r="65" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S66" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T66" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U66" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V66" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W66" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="X66" s="41" t="s">
+      <c r="S65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U65" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V65" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W65" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X65" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T66" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U66" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V66" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W66" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X66" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>50</v>
@@ -4225,7 +4459,7 @@
         <v>56</v>
       </c>
       <c r="W67" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X67" s="41" t="s">
         <v>56</v>
@@ -4233,10 +4467,10 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>50</v>
@@ -4254,18 +4488,18 @@
         <v>56</v>
       </c>
       <c r="W68" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X68" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>50</v>
@@ -4276,172 +4510,172 @@
       <c r="T69" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V69" s="38">
-        <v>0</v>
+      <c r="U69" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V69" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="W69" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X69" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V70" s="38">
+        <v>0</v>
+      </c>
+      <c r="W70" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="X70" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T71" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U71" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V71" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="W71" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X71" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V72" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="W72" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X72" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B73" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24" t="s">
+      <c r="C73" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T70" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U70" s="21" t="s">
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T73" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U73" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="V70" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="W70" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X70" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S71" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T71" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U71" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V71" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="W71" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X71" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
-      <c r="S72" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T72" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U72" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V72" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="W72" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X72" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S73" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T73" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U73" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V73" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="W73" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X73" s="41" t="s">
+      <c r="V73" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="W73" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X73" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>50</v>
@@ -4456,7 +4690,7 @@
         <v>47</v>
       </c>
       <c r="V74" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="W74" s="41" t="s">
         <v>56</v>
@@ -4465,12 +4699,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P75" s="4" t="s">
         <v>50</v>
@@ -4485,7 +4719,7 @@
         <v>47</v>
       </c>
       <c r="V75" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="W75" s="41" t="s">
         <v>56</v>
@@ -4494,129 +4728,129 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+    <row r="76" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V76" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="W76" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X76" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T77" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U77" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V77" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W77" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X77" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B78" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T76" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U76" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V76" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W76" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X76" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T77" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="U77" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V77" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W77" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="X77" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S78" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T78" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U78" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V78" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W78" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="X78" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C78" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T78" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U78" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V78" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W78" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="X78" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P79" s="4" t="s">
         <v>50</v>
@@ -4634,7 +4868,7 @@
         <v>56</v>
       </c>
       <c r="W79" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X79" s="41" t="s">
         <v>56</v>
@@ -4642,10 +4876,10 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P80" s="4" t="s">
         <v>50</v>
@@ -4663,7 +4897,7 @@
         <v>56</v>
       </c>
       <c r="W80" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X80" s="41" t="s">
         <v>56</v>
@@ -4671,10 +4905,10 @@
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P81" s="4" t="s">
         <v>50</v>
@@ -4692,15 +4926,44 @@
         <v>56</v>
       </c>
       <c r="W81" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X81" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V82" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W82" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="X82" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="U91" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4716,7 +4979,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="W3 U8:V9 V3 V4 U13:U14 V13:V14 V11:V12 V17 V18:V22 X15:X23 V46:V68 V23:V45 V5 V6 V7 V10 X26:X81 W48:W81 W4:W31 V70:V81 U16 V16" numberStoredAsText="1"/>
+    <ignoredError sqref="W3 U8:V9 V3 V4 U13:U14 V13:V14 V11:V12 V17 V18:V22 X15:X23 V23:V26 V5 V6 V7 V10 X26 W4:W26 U16 V16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoldas/Documents/GitHub/BLG222E-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200DE67F-BB6D-CC4E-97BF-5848B40622A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B20E183-0BF8-8A4B-B19F-276737429D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{443453B2-BC4C-284F-AA83-E3A6FCF9F1BC}"/>
+    <workbookView xWindow="30400" yWindow="-14580" windowWidth="21300" windowHeight="37580" xr2:uid="{443453B2-BC4C-284F-AA83-E3A6FCF9F1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="239">
   <si>
     <t>T0</t>
   </si>
@@ -322,18 +322,6 @@
     <t>CSR</t>
   </si>
   <si>
-    <t>DSTREG ← SREG1 AND SREG2*</t>
-  </si>
-  <si>
-    <t>DSTREG ← SREG1 OR SREG2*</t>
-  </si>
-  <si>
-    <t>DSTREG ← SREG1 XOR SREG2*</t>
-  </si>
-  <si>
-    <t>DSTREG ← SREG1 NAND SREG2*</t>
-  </si>
-  <si>
     <t>AND</t>
   </si>
   <si>
@@ -349,21 +337,12 @@
     <t>ADD</t>
   </si>
   <si>
-    <t>DSTREG ← SREG1 + SREG2*</t>
-  </si>
-  <si>
-    <t>DSTREG ← SREG1 + SREG2* + CARRY*</t>
-  </si>
-  <si>
     <t>ADC</t>
   </si>
   <si>
     <t>SUB</t>
   </si>
   <si>
-    <t>DSTREG ← SREG1 - SREG2*</t>
-  </si>
-  <si>
     <t>DSTREG ← SREG1</t>
   </si>
   <si>
@@ -421,24 +400,6 @@
     <t>T3.D10</t>
   </si>
   <si>
-    <t>T3.D11</t>
-  </si>
-  <si>
-    <t>T3.D12</t>
-  </si>
-  <si>
-    <t>T3.D13</t>
-  </si>
-  <si>
-    <t>T3.D14</t>
-  </si>
-  <si>
-    <t>T3.D15</t>
-  </si>
-  <si>
-    <t>T3.D16</t>
-  </si>
-  <si>
     <t>T3.D17</t>
   </si>
   <si>
@@ -460,15 +421,6 @@
     <t>T3.D23</t>
   </si>
   <si>
-    <t>T3.D24</t>
-  </si>
-  <si>
-    <t>T3.D25</t>
-  </si>
-  <si>
-    <t>T3.D26</t>
-  </si>
-  <si>
     <t>T3.D27</t>
   </si>
   <si>
@@ -493,45 +445,24 @@
     <t>T3.D34</t>
   </si>
   <si>
-    <t>T3.D35</t>
-  </si>
-  <si>
     <t>T3.D36</t>
   </si>
   <si>
     <t>T4.D7</t>
   </si>
   <si>
-    <t>T5.D7</t>
-  </si>
-  <si>
     <t>M[SP] ← PC[15:8], SP ← SP--</t>
   </si>
   <si>
     <t>M[SP] ← PC[7:0], SP ← SP--</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>T4.D8</t>
   </si>
   <si>
     <t>Rx[31-8] ← Rx[23-0], Rx[7-0] ← IMMEDIATE (8-bit)</t>
   </si>
   <si>
-    <t>DSTREG[15:8] ← M[AR], AR++</t>
-  </si>
-  <si>
-    <t>DSTREG[7:0] ← M[AR]</t>
-  </si>
-  <si>
-    <t>DSTREG[31:24] ← M[AR], AR++</t>
-  </si>
-  <si>
-    <t>DSTREG[23:16] ← M[AR], AR++</t>
-  </si>
-  <si>
     <t>M[AR] ← SREG1[31:24], AR++</t>
   </si>
   <si>
@@ -559,27 +490,12 @@
     <t>T5.D29</t>
   </si>
   <si>
-    <t>T6.D29</t>
-  </si>
-  <si>
     <t>T4.D30</t>
   </si>
   <si>
     <t>AR ← IR[7:0] (IMMEDIATE ADDRESS)</t>
   </si>
   <si>
-    <t>Rx[15:8] ← M[AR], AR++</t>
-  </si>
-  <si>
-    <t>Rx[7:0] ← M[AR]</t>
-  </si>
-  <si>
-    <t>Rx[23:16] ← M[AR], AR++</t>
-  </si>
-  <si>
-    <t>Rx[31:24] ← M[AR], AR++</t>
-  </si>
-  <si>
     <t>T5.D30</t>
   </si>
   <si>
@@ -619,9 +535,6 @@
     <t>DR[31:24] ← M[AR], AR++</t>
   </si>
   <si>
-    <t>AR ← AR + OFFSET</t>
-  </si>
-  <si>
     <t>T4.D32</t>
   </si>
   <si>
@@ -631,21 +544,12 @@
     <t>T6.D32</t>
   </si>
   <si>
-    <t>T7.D32</t>
-  </si>
-  <si>
-    <t>T4.D33</t>
-  </si>
-  <si>
     <t>T4.D34</t>
   </si>
   <si>
     <t>T5.D34</t>
   </si>
   <si>
-    <t>T6.D34</t>
-  </si>
-  <si>
     <t>T4.D36</t>
   </si>
   <si>
@@ -700,10 +604,154 @@
     <t>DR[15:8] ← M[SP] (16 bit), SP++</t>
   </si>
   <si>
-    <t>T5.D8</t>
-  </si>
-  <si>
     <t>PC ← DR[15:0]</t>
+  </si>
+  <si>
+    <t>T3.D7</t>
+  </si>
+  <si>
+    <t>T2.D8</t>
+  </si>
+  <si>
+    <t>T2.D9</t>
+  </si>
+  <si>
+    <t>T2.D10</t>
+  </si>
+  <si>
+    <t>T2.D11</t>
+  </si>
+  <si>
+    <t>T2.D12</t>
+  </si>
+  <si>
+    <t>T2.D13</t>
+  </si>
+  <si>
+    <t>T2.D14</t>
+  </si>
+  <si>
+    <t>T2.D15</t>
+  </si>
+  <si>
+    <t>T2.D16</t>
+  </si>
+  <si>
+    <t>T2.D17</t>
+  </si>
+  <si>
+    <t>T2.D18</t>
+  </si>
+  <si>
+    <t>T2.D19</t>
+  </si>
+  <si>
+    <t>T2.D20</t>
+  </si>
+  <si>
+    <t>T2.D21</t>
+  </si>
+  <si>
+    <t>T2.D22</t>
+  </si>
+  <si>
+    <t>T2.D23</t>
+  </si>
+  <si>
+    <t>T2.D24</t>
+  </si>
+  <si>
+    <t>T2.D25</t>
+  </si>
+  <si>
+    <t>T2.D26</t>
+  </si>
+  <si>
+    <t>T2.D27</t>
+  </si>
+  <si>
+    <t>T2.D28</t>
+  </si>
+  <si>
+    <t>T2.D29</t>
+  </si>
+  <si>
+    <t>T2.D30</t>
+  </si>
+  <si>
+    <t>T2.D31</t>
+  </si>
+  <si>
+    <t>T2.D32</t>
+  </si>
+  <si>
+    <t>T2.D33</t>
+  </si>
+  <si>
+    <t>T2.D34</t>
+  </si>
+  <si>
+    <t>T2.D35</t>
+  </si>
+  <si>
+    <t>T2.D36</t>
+  </si>
+  <si>
+    <t>S1 ← OFFSET</t>
+  </si>
+  <si>
+    <t>AR ← S1 + AR</t>
+  </si>
+  <si>
+    <t>T4.D27</t>
+  </si>
+  <si>
+    <t>S1 ← SREG1</t>
+  </si>
+  <si>
+    <t>S1 ← SREG2</t>
+  </si>
+  <si>
+    <t>DSTREG ← SREG1 - SREG2</t>
+  </si>
+  <si>
+    <t>T4.D23</t>
+  </si>
+  <si>
+    <t>DSTREG ← SREG1 + SREG2</t>
+  </si>
+  <si>
+    <t>DSTREG ← SREG1 + SREG2 + Carry</t>
+  </si>
+  <si>
+    <t>T4.D17</t>
+  </si>
+  <si>
+    <t>T4.D18</t>
+  </si>
+  <si>
+    <t>T4.D19</t>
+  </si>
+  <si>
+    <t>T4.D20</t>
+  </si>
+  <si>
+    <t>T4.D21</t>
+  </si>
+  <si>
+    <t>T4.D22</t>
+  </si>
+  <si>
+    <t>DSTREG ← SREG1 &amp; SREG2</t>
+  </si>
+  <si>
+    <t>DSTREG ← SREG1 | SREG2</t>
+  </si>
+  <si>
+    <t>DSTREG ← SREG1 ^  SREG2</t>
+  </si>
+  <si>
+    <t>DSTREG ← ~(SREG1 &amp; SREG2)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -849,11 +897,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,6 +995,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,25 +1031,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1292,13 +1369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DB591A-43FC-2A40-86FF-FC6A8A5D345E}">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="84" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,41 +1393,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="34" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="28"/>
+      <c r="X1" s="33"/>
     </row>
     <row r="2" spans="1:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
@@ -1478,13 +1555,13 @@
       <c r="U3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="37">
+      <c r="V3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1549,13 +1626,13 @@
       <c r="U4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="39">
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1623,13 +1700,13 @@
       <c r="U5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="36">
-        <v>0</v>
-      </c>
-      <c r="W5" s="40">
-        <v>0</v>
-      </c>
-      <c r="X5" s="40">
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="31">
+        <v>0</v>
+      </c>
+      <c r="X5" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1697,13 +1774,13 @@
       <c r="U6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="36">
-        <v>0</v>
-      </c>
-      <c r="W6" s="40">
-        <v>0</v>
-      </c>
-      <c r="X6" s="40">
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="31">
+        <v>0</v>
+      </c>
+      <c r="X6" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1771,13 +1848,13 @@
       <c r="U7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="36">
-        <v>0</v>
-      </c>
-      <c r="W7" s="40">
-        <v>0</v>
-      </c>
-      <c r="X7" s="40">
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="31">
+        <v>0</v>
+      </c>
+      <c r="X7" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1839,13 +1916,13 @@
       <c r="U8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="15">
         <v>1</v>
       </c>
-      <c r="W8" s="37">
-        <v>0</v>
-      </c>
-      <c r="X8" s="37">
+      <c r="W8" s="29">
+        <v>0</v>
+      </c>
+      <c r="X8" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1901,13 +1978,13 @@
       <c r="U9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9" s="41">
-        <v>0</v>
-      </c>
-      <c r="X9" s="41">
+      <c r="W9" s="32">
+        <v>0</v>
+      </c>
+      <c r="X9" s="32">
         <v>0</v>
       </c>
     </row>
@@ -1968,13 +2045,13 @@
       <c r="U10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="38">
-        <v>0</v>
-      </c>
-      <c r="W10" s="39">
-        <v>0</v>
-      </c>
-      <c r="X10" s="39">
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="30">
+        <v>0</v>
+      </c>
+      <c r="X10" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2016,7 +2093,7 @@
         <v>54</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="R11" s="19" t="s">
         <v>55</v>
@@ -2030,13 +2107,13 @@
       <c r="U11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" s="37">
+      <c r="V11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="29">
         <v>1</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2075,7 +2152,7 @@
         <v>54</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>55</v>
@@ -2089,13 +2166,13 @@
       <c r="U12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W12" s="39">
+      <c r="V12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="30">
         <v>1</v>
       </c>
-      <c r="X12" s="39">
+      <c r="X12" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2107,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2155,13 +2232,13 @@
       <c r="U13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="15">
         <v>1</v>
       </c>
-      <c r="W13" s="37">
-        <v>0</v>
-      </c>
-      <c r="X13" s="37">
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2170,7 +2247,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>46</v>
@@ -2214,13 +2291,13 @@
       <c r="U14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="1">
         <v>1</v>
       </c>
-      <c r="W14" s="41">
-        <v>0</v>
-      </c>
-      <c r="X14" s="41">
+      <c r="W14" s="32">
+        <v>0</v>
+      </c>
+      <c r="X14" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2306,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>46</v>
@@ -2273,13 +2350,13 @@
       <c r="U15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="1">
         <v>1</v>
       </c>
-      <c r="W15" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="41" t="s">
+      <c r="W15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2288,7 +2365,7 @@
         <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>46</v>
@@ -2332,13 +2409,13 @@
       <c r="U16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="1">
         <v>1</v>
       </c>
-      <c r="W16" s="41">
-        <v>0</v>
-      </c>
-      <c r="X16" s="41">
+      <c r="W16" s="32">
+        <v>0</v>
+      </c>
+      <c r="X16" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2372,7 +2449,7 @@
         <v>55</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>47</v>
@@ -2398,13 +2475,13 @@
       <c r="U17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17" s="39">
-        <v>0</v>
-      </c>
-      <c r="X17" s="39">
+      <c r="V17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="30">
+        <v>0</v>
+      </c>
+      <c r="X17" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2452,13 +2529,13 @@
         <v>45</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>54</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="R18" s="19" t="s">
         <v>55</v>
@@ -2472,13 +2549,13 @@
       <c r="U18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="X18" s="37">
+      <c r="V18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2523,13 +2600,13 @@
         <v>45</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>55</v>
@@ -2543,13 +2620,13 @@
       <c r="U19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V19" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W19" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X19" s="41">
+      <c r="V19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2594,13 +2671,13 @@
         <v>45</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="R20" s="19" t="s">
         <v>55</v>
@@ -2614,13 +2691,13 @@
       <c r="U20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X20" s="41">
+      <c r="V20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2665,13 +2742,13 @@
         <v>45</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="R21" s="19" t="s">
         <v>55</v>
@@ -2685,13 +2762,13 @@
       <c r="U21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="X21" s="39">
+      <c r="V21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="X21" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2703,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -2711,7 +2788,7 @@
         <v>54</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>46</v>
@@ -2733,7 +2810,7 @@
         <v>54</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="R22" s="19" t="s">
         <v>55</v>
@@ -2747,28 +2824,28 @@
       <c r="U22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="X22" s="37">
+      <c r="V22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="X22" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>46</v>
@@ -2786,7 +2863,7 @@
         <v>54</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>55</v>
@@ -2800,19 +2877,19 @@
       <c r="U23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X23" s="41" t="s">
+      <c r="V23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X23" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -2851,13 +2928,13 @@
       <c r="U24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W24" s="39">
-        <v>0</v>
-      </c>
-      <c r="X24" s="39">
+      <c r="V24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="30">
+        <v>0</v>
+      </c>
+      <c r="X24" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2866,10 +2943,10 @@
         <v>78</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -2901,22 +2978,22 @@
       <c r="U25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" s="40">
-        <v>0</v>
-      </c>
-      <c r="X25" s="40">
+      <c r="V25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="31">
+        <v>0</v>
+      </c>
+      <c r="X25" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>53</v>
@@ -2936,22 +3013,28 @@
       <c r="U26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W26" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X26" s="41" t="s">
+      <c r="V26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X26" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2959,10 +3042,10 @@
         <v>79</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -2988,17 +3071,20 @@
       <c r="U28" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X28" s="40">
+      <c r="V28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X28" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>81</v>
       </c>
@@ -3011,13 +3097,13 @@
       <c r="U29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V29" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X29" s="41" t="s">
+      <c r="V29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="32">
+        <v>0</v>
+      </c>
+      <c r="X29" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3026,10 +3112,10 @@
         <v>80</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3055,17 +3141,20 @@
       <c r="U30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X30" s="40">
+      <c r="V30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="31">
+        <v>0</v>
+      </c>
+      <c r="X30" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
@@ -3078,13 +3167,13 @@
       <c r="U31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V31" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X31" s="41" t="s">
+      <c r="V31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X31" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3093,7 +3182,7 @@
         <v>83</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>84</v>
@@ -3122,13 +3211,13 @@
       <c r="U32" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W32" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32" s="40">
+      <c r="V32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3137,7 +3226,7 @@
         <v>91</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>85</v>
@@ -3166,13 +3255,13 @@
       <c r="U33" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33" s="40">
-        <v>0</v>
-      </c>
-      <c r="X33" s="40">
+      <c r="V33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" s="31">
+        <v>0</v>
+      </c>
+      <c r="X33" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3270,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>87</v>
@@ -3210,13 +3299,13 @@
       <c r="U34" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="40">
-        <v>0</v>
-      </c>
-      <c r="X34" s="40">
+      <c r="V34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="31">
+        <v>0</v>
+      </c>
+      <c r="X34" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3225,7 +3314,7 @@
         <v>93</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>86</v>
@@ -3254,13 +3343,13 @@
       <c r="U35" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W35" s="40">
-        <v>0</v>
-      </c>
-      <c r="X35" s="40">
+      <c r="V35" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" s="31">
+        <v>0</v>
+      </c>
+      <c r="X35" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3269,7 +3358,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>88</v>
@@ -3298,13 +3387,13 @@
       <c r="U36" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V36" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W36" s="40">
-        <v>0</v>
-      </c>
-      <c r="X36" s="40">
+      <c r="V36" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" s="31">
+        <v>0</v>
+      </c>
+      <c r="X36" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3313,7 +3402,7 @@
         <v>90</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>89</v>
@@ -3342,25 +3431,25 @@
       <c r="U37" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V37" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W37" s="40">
-        <v>0</v>
-      </c>
-      <c r="X37" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" s="31">
+        <v>0</v>
+      </c>
+      <c r="X37" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -3386,113 +3475,41 @@
       <c r="U38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W38" s="40">
-        <v>0</v>
-      </c>
-      <c r="X38" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="15" t="s">
+      <c r="V38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" s="31">
+        <v>0</v>
+      </c>
+      <c r="X38" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T39" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U39" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W39" s="40">
-        <v>0</v>
-      </c>
-      <c r="X39" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T40" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U40" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W40" s="40">
-        <v>0</v>
-      </c>
-      <c r="X40" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>102</v>
-      </c>
       <c r="B41" s="15" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3518,113 +3535,41 @@
       <c r="U41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V41" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W41" s="40">
-        <v>0</v>
-      </c>
-      <c r="X41" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T42" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V42" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W42" s="40">
-        <v>0</v>
-      </c>
-      <c r="X42" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T43" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U43" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V43" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W43" s="40">
-        <v>0</v>
-      </c>
-      <c r="X43" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="31">
+        <v>0</v>
+      </c>
+      <c r="X41" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -3650,229 +3595,101 @@
       <c r="U44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V44" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W44" s="40">
-        <v>0</v>
-      </c>
-      <c r="X44" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T45" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U45" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V45" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W45" s="40">
-        <v>0</v>
-      </c>
-      <c r="X45" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T46" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U46" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V46" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" s="40">
-        <v>0</v>
-      </c>
-      <c r="X46" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W44" s="31">
+        <v>0</v>
+      </c>
+      <c r="X44" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T47" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T47" s="26" t="s">
         <v>55</v>
       </c>
       <c r="U47" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V47" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W47" s="37">
-        <v>0</v>
-      </c>
-      <c r="X47" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T48" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U48" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V48" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W48" s="40">
-        <v>0</v>
-      </c>
-      <c r="X48" s="40">
-        <v>0</v>
+      <c r="V47" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" s="31">
+        <v>0</v>
+      </c>
+      <c r="X47" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U49" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V49" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W49" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X49" s="41" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>163</v>
+        <v>204</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -3886,9 +3703,7 @@
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
       <c r="O50" s="24"/>
-      <c r="P50" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="P50" s="24"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="26" t="s">
@@ -3900,417 +3715,336 @@
       <c r="U50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V50" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W50" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X50" s="40">
+      <c r="V50" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W50" s="31">
+        <v>0</v>
+      </c>
+      <c r="X50" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P51" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T53" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U53" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V53" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W53" s="31">
+        <v>0</v>
+      </c>
+      <c r="X53" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T56" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U56" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V56" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W56" s="31">
+        <v>0</v>
+      </c>
+      <c r="X56" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T59" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U59" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V59" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W59" s="31">
+        <v>0</v>
+      </c>
+      <c r="X59" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U60" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W60" s="31">
+        <v>0</v>
+      </c>
+      <c r="X60" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T61" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U61" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V61" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W61" s="29">
+        <v>0</v>
+      </c>
+      <c r="X61" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U51" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V51" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W51" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X51" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U52" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V52" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W52" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X52" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U53" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V53" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W53" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X53" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T54" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U54" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V54" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W54" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="X54" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V55" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W55" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X55" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S56" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T56" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U56" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V56" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W56" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X56" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U57" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V57" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W57" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X57" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T58" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U58" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V58" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W58" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X58" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U59" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V59" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W59" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X59" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T60" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V60" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W60" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X60" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T61" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U61" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V61" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W61" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X61" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T62" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U62" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V62" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W62" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X62" s="41" t="s">
-        <v>56</v>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T62" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U62" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V62" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W62" s="31">
+        <v>0</v>
+      </c>
+      <c r="X62" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>179</v>
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>50</v>
@@ -4324,124 +4058,105 @@
       <c r="U63" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V63" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W63" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X63" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W63" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X63" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="P64" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S64" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T64" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U64" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V64" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W64" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X64" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P65" s="4" t="s">
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T65" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U65" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V65" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W65" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X65" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S65" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T65" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U65" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V65" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W65" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X65" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T66" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U66" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V66" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W66" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X66" s="40" t="s">
+      <c r="S66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W66" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X66" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>50</v>
@@ -4455,22 +4170,22 @@
       <c r="U67" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V67" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W67" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X67" s="41" t="s">
+      <c r="V67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W67" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X67" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>50</v>
@@ -4484,123 +4199,105 @@
       <c r="U68" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V68" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W68" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X68" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W68" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X68" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P69" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S69" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T69" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U69" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V69" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W69" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X69" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T70" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V70" s="38">
-        <v>0</v>
-      </c>
-      <c r="W70" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X70" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="25"/>
-      <c r="S71" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T71" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U71" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V71" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="W71" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X71" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T70" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U70" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V70" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W70" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="X70" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="S71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W71" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X71" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>50</v>
@@ -4612,128 +4309,125 @@
         <v>55</v>
       </c>
       <c r="U72" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V72" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="W72" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X72" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W72" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X72" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W73" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X73" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T74" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U74" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V74" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W74" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X74" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" s="40" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="46"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T73" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U73" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V73" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="W73" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X73" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S74" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T74" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U74" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V74" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="W74" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X74" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S75" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T75" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U75" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V75" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="W75" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X75" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="P76" s="4" t="s">
         <v>50</v>
@@ -4745,112 +4439,97 @@
         <v>55</v>
       </c>
       <c r="U76" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V76" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="W76" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="X76" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T77" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U77" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V77" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W77" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X77" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W76" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X76" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W77" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X77" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T78" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T78" s="26" t="s">
         <v>55</v>
       </c>
       <c r="U78" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V78" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W78" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="X78" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V78" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W78" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X78" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="P79" s="4" t="s">
         <v>50</v>
@@ -4864,22 +4543,22 @@
       <c r="U79" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V79" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W79" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X79" s="41" t="s">
+      <c r="V79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W79" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X79" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="P80" s="4" t="s">
         <v>50</v>
@@ -4893,22 +4572,22 @@
       <c r="U80" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V80" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W80" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X80" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W80" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X80" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="P81" s="4" t="s">
         <v>50</v>
@@ -4922,48 +4601,628 @@
       <c r="U81" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V81" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W81" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X81" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W81" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X81" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P82" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S82" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T82" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V82" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W82" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X82" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="U91" s="7" t="s">
+      <c r="S83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W83" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X83" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T84" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U84" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V84" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W84" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X84" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T85" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U85" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W85" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X85" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U86" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W86" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X86" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U87" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W87" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X87" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0</v>
+      </c>
+      <c r="W88" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X88" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T89" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U89" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V89" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="W89" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X89" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W90" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X90" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T91" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U91" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V91" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="W91" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X91" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S92" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T92" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W92" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X92" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W93" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X93" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U94" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W94" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X94" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T95" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U95" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V95" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W95" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X95" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" s="15" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T96" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U96" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V96" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W96" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X96" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W97" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X97" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W98" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X98" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T99" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U99" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W99" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X99" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U100" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W100" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="X100" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
